--- a/2025-03-03_o3-mini_feedback_sheets/overall_spec/Food impaction_spec_overall.xlsx
+++ b/2025-03-03_o3-mini_feedback_sheets/overall_spec/Food impaction_spec_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Duration of 3 months of food getting stuck is present.</t>
+          <t>duration of 3 months of food getting stuck is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This directly describes recurrent food impaction over a meaningful period, which is highly specific for an obstructive process in the esophagus.</t>
+          <t>This directly indicates a chronic history of food impaction, being a hallmark symptom of the condition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Raynauds phenomenon reported is present.</t>
+          <t>pain relieved with regurgitation is present</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Raynauds phenomenon typically points to an underlying connective tissue disorder rather than a localized mechanical esophageal obstruction seen in food impaction.</t>
+          <t>Relief with regurgitation suggests that the food bolus can eventually pass, which is less consistent with a true impaction where obstruction typically prevents clearance.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>difficulty swallowing solids is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trouble with solids is a classic symptom of food impaction, suggesting a mechanical lumen-limiting process in the esophagus.</t>
+          <t>Impaired transit of solids is strongly associated with food impaction, where a physical obstruction prevents normal passage.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Telangiectasias reported is present.</t>
+          <t>current heartburn is present</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Telangiectasias are markers of systemic conditions like scleroderma, which more commonly cause dysmotility rather than discrete food impaction.</t>
+          <t>Heartburn is a common symptom of gastroesophageal reflux disease, which can cause dysphagia through inflammation rather than mechanical obstruction from food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>onset of chest pain associated with eating food is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While more commonly associated with motility disorders, the presence alongside solids indicates a severe swallowing dysfunction that can coincide with food impaction.</t>
+          <t>Chest pain that begins with eating suggests that the act of swallowing may be triggering impaction, lending strong support for this diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hand pain out of proportion to other joints is present.</t>
+          <t>long-standing heartburn (duration of years) is present</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This type of pain is more indicative of systemic rheumatologic disorders and may point away from an isolated mechanical obstruction causing food impaction.</t>
+          <t>A chronic history of heartburn supports a reflux etiology rather than an acute or subacute obstruction seen with food impaction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Onset of chest pain associated with eating food is present.</t>
+          <t>difficulty swallowing liquids is present</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chest pain that occurs with eating supports the idea of esophageal obstruction or irritation during bolus transit, favoring food impaction.</t>
+          <t>Though food impaction more classically affects solids, involvement of liquids indicates a more generalized esophageal dysfunction that can accompany impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pain relieved with regurgitation is present.</t>
+          <t>long-standing reflux (duration of years) is present</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Relief with regurgitation is more commonly associated with reflux-related disorders and esophageal spasm rather than true food impaction.</t>
+          <t>Chronic reflux suggests a longstanding motility or mucosal irritation issue, making obstruction by food less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pain when swallowing (odynophagia) is present.</t>
+          <t>pain when swallowing (odynophagia) is present</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The presence of painful swallowing further suggests mucosal injury or an obstructive process caused by impaction, supporting the diagnosis.</t>
+          <t>Odynophagia indicates that swallowing is painful, which can occur when food impaction leads to mucosal irritation and inflammation.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current heartburn is present.</t>
+          <t>Raynauds phenomenon reported is present</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Heartburn is typically a symptom of gastroesophageal reflux disease, which can cause esophagitis and strictures but is not as directly indicative of acute food impaction.</t>
+          <t>Raynaud's phenomenon is associated with systemic conditions like scleroderma, which typically cause motility problems rather than true mechanical obstruction leading to food impaction.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>takes amlodipine</t>
+          <t>takes amlodipine is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amlodipine, as a calcium channel blocker, can theoretically relax smooth muscle, potentially reducing lower esophageal sphincter tone and impairing peristalsis, which may predispose to food impaction.</t>
+          <t>Amlodipine, a calcium channel blocker, has been reported in some cases to lead to esophageal dysmotility which can predispose to food impaction by causing impaired esophageal clearance.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
+          <t>Alcohol use disorder is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radiation therapy to the neck or chest can cause strictures or fibrosis leading to food impaction; its absence argues against a radiation-induced etiology for food impaction.</t>
+          <t>Alcohol use disorder can exacerbate esophageal mucosal injury or alter motility. Its absence argues against secondary causes of esophageal dysfunction leading to food impaction.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>middle age is present</t>
+          <t>Female is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Being middle‐aged may be associated with age‐related changes in esophageal motility or structure, slightly increasing the risk of food impaction.</t>
+          <t>Some studies note that certain esophageal motility disorders and conditions leading to food impaction may have a gender predilection; in this context, being female adds a potential demographic alignment.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is absent</t>
+          <t>Nicotine dependence is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Alcohol use disorder has been linked in some contexts with esophageal mucosal damage and motility issues; its absence diminishes this risk factor for food impaction.</t>
+          <t>Nicotine can increase gastroesophageal reflux and contribute to esophageal injury. The lack of nicotine dependence decreases the likelihood of reflux-related structural changes contributing to food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Female is present</t>
+          <t>middle age is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Although many cases of food impaction (especially those related to eosinophilic esophagitis) are more common in males, the presence of a female patient does not rule out food impaction and may be relevant in alternative esophageal motility disorders.</t>
+          <t>Food impaction related to mechanical or motility-related causes is more commonly seen in middle-aged adults, making this demographic factor supportive.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nicotine dependence is absent</t>
+          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nicotine can affect esophageal motility and exacerbate reflux, both of which may predispose to food impaction; the absence of nicotine dependence is evidence against such mechanisms.</t>
+          <t>Radiation to the neck region is a known risk factor for developing esophageal strictures, which can cause food impaction. Its absence serves as strong counterevidence.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>absence of recent medication changes</t>
+          <t>recent medication changes is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A stable medication regimen, with the exception of amlodipine, might help isolate that amlodipine's potential effects on esophageal motility are not confounded by other new agents that could otherwise explain symptoms.</t>
+          <t>The absence of recent medication changes makes it less likely that transient pharmacologic effects (other than those from chronic medications like amlodipine) are responsible, thereby indirectly supporting a more chronic mechanism such as structural or motility issues that can cause food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Environmental allergies, Asthma, and Eczema are absent</t>
+          <t>Previously diagnosed Hyperlipidemia is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>These findings often correlate with atopic conditions like eosinophilic esophagitis, a common cause of food impaction; their absence argues against an allergic-mediated esophageal disease.</t>
+          <t>Although hyperlipidemia is a cardiovascular risk factor rather than a direct risk factor for food impaction, its absence helps focus the differential away from systemic processes that might indirectly affect esophageal function.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lack of significant cardiovascular comorbidities</t>
+          <t>absence of multiple cardiometabolic risk factors (e.g., Coronary Artery Disease, type 2 diabetes, obesity, hypertension)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of conditions like coronary artery disease, prior myocardial infarction, and hypertension means that any esophageal symptom such as food impaction is less likely to be attributed to vascular or cardiac etiologies, thereby raising the relative prominence of primary esophageal dysmotility processes.</t>
+          <t>While these cardiovascular risk factors do not directly cause food impaction, their absence helps delineate a clinical picture more focused on esophageal or motility etiologies rather than systemic vascular disease, which can sometimes confound esophageal blood flow and neural regulation.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of multiple metabolic and vascular comorbidities (e.g., Coronary Artery Disease, Hyperlipidemia, type 2 diabetes, obesity, prior stroke)</t>
+          <t>Absence of multiple vascular and metabolic conditions (e.g., prior myocardial infarction, type 2 diabetes, prior stroke, and diagnosed hypertension)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The general lack of metabolic and vascular diseases reduces the likelihood of indirect esophageal dysmotility or structural abnormalities that sometimes accompany these conditions, thereby lowering the probability of food impaction from these causes.</t>
+          <t>These conditions, when present, may predispose to neuropathic or motility issues in the esophagus through systemic vascular compromise. Their absence lowers the possibility of esophageal dysmotility due to systemic disease, thereby arguing against food impaction from a neuropathic etiology.</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prior tobacco use might contribute to esophageal mucosal injury predisposing to structural changes that can lead to food impaction, making this finding relatively supportive.</t>
+          <t>Prior tobacco use has been associated in some studies with esophageal dysmotility and chronic irritation, which can predispose to conditions leading to Food impaction. Although less robust than current use, its presence may incrementally support the diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -779,85 +779,85 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of a family history of rheumatoid arthritis reduces the likelihood of connective tissue disorders that can be associated with esophageal dysmotility, thus arguing against food impaction secondary to such processes.</t>
+          <t>Rheumatoid Arthritis can be associated with esophageal dysmotility. Its absence makes a connective tissue or autoimmune contribution to esophageal dysfunction, and hence Food impaction, less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Family history of myocardial infarction in father is present</t>
+          <t>Recent social stress is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A family history of myocardial infarction could signify a familial predisposition to vascular or connective tissue changes, which are sometimes associated with esophageal motility disorders that may predispose to food impaction.</t>
+          <t>Stress can potentially exacerbate esophageal symptoms and esophageal motility disorders, which may contribute indirectly to Food impaction, supporting the consideration of the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent</t>
+          <t>Alcohol use is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use reduces ongoing inflammatory or injurious exposure to the esophageal lining, which decreases the risk for progressive esophageal strictures that predispose to food impaction.</t>
+          <t>Alcohol use can contribute to esophageal mucosal injury or reflux, which may predispose to strictures and Food impaction. The absence of alcohol use argues against these mechanisms.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Recent social stress is present</t>
+          <t>Family history of myocardial infarction in father is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Social stress may contribute to alterations in esophageal motility or exacerbate underlying functional esophageal disorders, which can increase the risk of food impaction.</t>
+          <t>A family history of myocardial infarction might indicate a shared predisposition to vascular or metabolic conditions, which have been loosely associated with esophageal reflux and subsequent stricture formation that predispose to Food impaction.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent travel is absent</t>
+          <t>Current tobacco use is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of recent travel minimizes the likelihood of exposure to uncommon dietary or infectious triggers that could cause esophageal inflammation and subsequent food impaction, thereby arguing against it.</t>
+          <t>Current tobacco use is more strongly correlated with acute esophageal irritation and dysfunction. Its absence weakens the support for an active process leading to Food impaction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use</t>
+          <t>Absence of family history of cancer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While not directly causative, the absence of alcohol use could mean that other risk factors (such as prior tobacco use) become more relevant in the context of esophageal injury, thereby indirectly supporting a role in food impaction.</t>
+          <t>While not a direct risk factor, the absence of a cancer history helps to focus on benign causes of esophageal narrowing like strictures leading to Food impaction rather than malignant obstructions.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent</t>
+          <t>Recent Travel is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures reduces the possibility of iatrogenic injury to the esophagus, which is a factor that could lead to structural abnormalities and food impaction, thereby arguing against the diagnosis.</t>
+          <t>Travel can expose individuals to dietary changes or infections that may precipitate acute esophageal conditions. The absence of recent travel mitigates these potential contributing factors.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of family history of cancer</t>
+          <t>Absence of recent medical procedure</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of a family history of cancer eliminates concerns for malignant strictures as an alternative cause of dysphagia, which might indirectly increase the relative likelihood of a benign cause such as food impaction.</t>
+          <t>The absence of recent medical procedures reduces the likelihood that symptoms are due to iatrogenic trauma or complications, thereby indirectly supporting a chronic process like esophageal stricture related to Food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of gestational complications reduces the likelihood of systemic conditions during pregnancy that can predispose to motility issues, thereby making food impaction less likely in this context.</t>
+          <t>Gestational complications can sometimes be linked with systemic inflammatory conditions, which could indirectly affect esophageal function. Their absence thus provides evidence against an inflammatory backdrop leading to Food impaction.</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weight loss may reflect nutritional deficits from chronic esophageal obstruction or difficulties in food passage, which can be seen in patients with food impaction.</t>
+          <t>Weight loss may indicate chronic difficulties with swallowing, which can be seen when food impaction leads to reduced oral intake.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon reduces the likelihood of associated systemic vascular or connective tissue disorders, which might otherwise lead to esophageal dysmotility or secondary impaction; thus, it argues against a more complex etiology for food impaction.</t>
+          <t>Although not directly linked to food impaction, its absence diminishes support for systemic diseases (that might predispose to esophageal dysmotility) thereby indirectly reducing the suspicion of food impaction related to a connective tissue disease.</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Although not classically diagnostic, telangiectasias can be associated with mucosal changes and esophageal abnormalities that sometimes coexist with conditions leading to food impaction.</t>
+          <t>Although not classically linked with food impaction, the presence of telangiectasias may suggest an underlying connective tissue or vascular disorder that can be associated with esophageal dysmotility and subsequent food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -952,19 +952,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of hand thickening lessens the probability of connective tissue diseases that can involve the esophagus, thereby arguing against secondary causes of food impaction related to systemic sclerosis or similar conditions.</t>
+          <t>The absence of hand thickening lowers the likelihood of scleroderma, a condition that can lead to esophageal dysmotility and consequent food impaction, thus arguing against a food impaction secondary to connective tissue disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent</t>
+          <t>Absence of epigastric pain on palpation (noted as absent)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice helps differentiate from inflammatory or reflux-related esophageal conditions; when food impaction is mechanical in nature, voice changes are typically not prominent, indirectly supporting food impaction.</t>
+          <t>While epigastric pain is more typical of conditions like reflux or ulcers, its absence in a patient with weight loss may steer thinking toward a mechanical obstruction such as food impaction rather than inflammatory pain.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -974,41 +974,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of finger ulcers supports the argument against underlying systemic or vasculopathic disorders, which could predispose to esophageal dysmotility and food impaction.</t>
+          <t>The lack of finger ulcers, another sign of connective tissue or vascular disorders, further reduces the probability of a systemic cause for esophageal dysmotility and food impaction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cough observed is absent</t>
+          <t>Absence of hoarse voice observed</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A negative cough finding implies that aspiration phenomena or reactive airway responses (often seen with reflux) are less likely, which is more consistent with a mechanical obstruction such as food impaction.</t>
+          <t>The lack of hoarseness, which might accompany other upper aerodigestive pathologies, helps focus concern toward a specific esophageal obstructive process like food impaction rather than diffuse upper airway involvement.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent</t>
+          <t>Enlargement of knuckles, finger deformities, or deviation of fingers is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The lack of joint swelling decreases the likelihood of inflammatory autoimmune conditions that might typically contribute to esophageal dysfunction and subsequent food impaction, thereby arguing in favor of a non-inflammatory mechanism.</t>
+          <t>These findings are more commonly associated with rheumatologic disorders that could affect esophageal motility, so their absence is evidence against a systemic etiology for food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent</t>
+          <t>Absence of cough observed</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of epigastric pain makes an inflammatory or ulcerative process less likely, indirectly favoring a scenario in which a mechanical issue like food impaction is the cause of symptoms.</t>
+          <t>An absent cough reduces the likelihood of an associated pulmonary or aspirational process, which helps separate food impaction (a mechanical esophageal issue) from other causes of dysphagia with respiratory manifestations.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of rheumatoid nodules makes a diagnosis of rheumatoid arthritis less likely; rheumatoid arthritis can be associated with esophageal motility disorders that may contribute to food impaction, so their absence supports a lower risk for such secondary causes.</t>
+          <t>The absence of rheumatoid nodules further decreases the probability of underlying systemic rheumatologic disease, thereby reducing the likelihood that any esophageal dysmotility (and subsequent food impaction) is secondary to such conditions.</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>While hyperlipidemia is not a conventional marker for food impaction, in certain populations it can be associated with metabolic syndrome and other esophageal motility disorders that may predispose to food impaction.</t>
+          <t>Even though hyperlipidemia is not classically a marker for food impaction, its presence can be interpreted as part of a metabolic profile that in some studies has been loosely associated with esophageal dysmotility disorders that predispose to impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of aspiration on a modified barium swallow (MBS) argues against significant esophageal dysfunction, which is often seen in prolonged food impaction cases that lead to spillage into the airway.</t>
+          <t>Food impaction, especially when significant, can predispose to aspiration. The absence of aspiration on the MBS is evidence against the severity typically seen when food impaction leads to pulmonary complications.</t>
         </is>
       </c>
     </row>
@@ -1093,51 +1093,51 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The absence of a strong positive ANA decreases suspicion for connective tissue disorders that could otherwise lead to esophageal dysmotility, indirectly supporting a mechanical process such as food impaction.</t>
+          <t>The absence of a strongly positive ANA helps rule out autoimmune causes of esophageal dysfunction, thereby indirectly favoring an etiology such as simple food impaction over more systemic autoimmune disorders.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent</t>
+          <t>CXR shows widened mediastinum is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A CT scan lacking interstitial lung disease (ILD) indicates there is no radiographic evidence of chronic aspiration pneumonia or inflammation from repeated episodes of food impaction.</t>
+          <t>A widened mediastinum may be seen as a result of complications from severe esophageal events. Its absence on CXR argues against the presence of a severe or complicated food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MBS shows aspiration is absent</t>
+          <t>CT shows ILD is absent</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A modified barium swallow (MBS) without aspiration may indicate that the dysphagia is localized to mechanical obstruction (i.e., food impaction) rather than a global motility disorder that commonly results in aspiration.</t>
+          <t>The lack of interstitial lung disease (ILD) on CT imaging rules out parenchymal lung processes that can be secondary to severe esophageal disorders, thus slightly favoring a localized process like food impaction.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent</t>
+          <t>CT shows ILD is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of a widened mediastinum on chest X-ray (CXR) helps rule out structural abnormalities or extrinsic compressions that might predispose to or accompany food impaction, thereby lowering its likelihood.</t>
+          <t>Interstitial lung disease can be a complication related to chronic aspiration from unresolved food impaction. Its absence on CT suggests that such a complication is not occurring, thus leaning against a significant food impaction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent</t>
+          <t>CXR shows widened mediastinum is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of interstitial lung disease (ILD) on CT suggests there has not been chronic aspiration or repeated inflammatory injury, which might shift the diagnosis away from neuromuscular dysphagia, indirectly leaving food impaction as a possibility.</t>
+          <t>A normal mediastinal width on chest X-ray helps exclude significant mediastinal pathology (such as perforation or mass) that might be a complication of alternative diagnoses, thereby indirectly supporting the possibility of uncomplicated food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1147,19 +1147,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>While the absence of a strong positive ANA may indirectly favor a mechanical cause, it also makes autoimmune esophageal dysmotility less likely, which might otherwise present similarly to food impaction. Thus, its absence decreases the overall likelihood of a significant esophageal pathology that could present as food impaction.</t>
+          <t>Although the absence of a strong positive ANA can help rule out autoimmune causes of dysmotility, it also suggests that there is no autoimmune-mediated severe esophageal dysfunction that might predispose to food impaction, thereby arguing against one potential severe form of the condition.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent</t>
+          <t>MBS shows aspiration is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A normal chest X-ray (CXR) lacking a widened mediastinum helps exclude alternative causes such as vascular anomalies or masses that could mimic or complicate symptoms, thereby not detracting from a diagnosis of isolated food impaction.</t>
+          <t>Although aspiration can occur with prolonged or severe food impaction, its absence on a modified barium swallow (MBS) may support the diagnosis in cases where the impaction is limited and has not led to secondary pulmonary events.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is not directly linked to esophageal function or food impaction-related pathology. Its presence does not specifically support the diagnosis and may be an incidental finding, thereby counting against attributing symptoms exclusively to food impaction.</t>
+          <t>Hyperlipidemia is a general metabolic finding and is not typically associated with esophageal impaction; its presence does not directly support food impaction and may even detract from a focused esophageal cause when considered in isolation.</t>
         </is>
       </c>
     </row>
